--- a/Assets/profiles.xlsx
+++ b/Assets/profiles.xlsx
@@ -196,7 +196,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5317,11 +5316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="973382432"/>
-        <c:axId val="973385696"/>
+        <c:axId val="-1565377280"/>
+        <c:axId val="-1565364768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="973382432"/>
+        <c:axId val="-1565377280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5364,7 +5363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973385696"/>
+        <c:crossAx val="-1565364768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5372,7 +5371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="973385696"/>
+        <c:axId val="-1565364768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5423,7 +5422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973382432"/>
+        <c:crossAx val="-1565377280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5437,7 +5436,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5519,7 +5517,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10640,11 +10637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="973391680"/>
-        <c:axId val="973387872"/>
+        <c:axId val="-1565377824"/>
+        <c:axId val="-1565364224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="973391680"/>
+        <c:axId val="-1565377824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10687,7 +10684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973387872"/>
+        <c:crossAx val="-1565364224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10695,7 +10692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="973387872"/>
+        <c:axId val="-1565364224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10746,7 +10743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973391680"/>
+        <c:crossAx val="-1565377824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10760,7 +10757,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15963,11 +15959,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="978246576"/>
-        <c:axId val="978243312"/>
+        <c:axId val="-1565368032"/>
+        <c:axId val="-1565369664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="978246576"/>
+        <c:axId val="-1565368032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16010,7 +16006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="978243312"/>
+        <c:crossAx val="-1565369664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16018,7 +16014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="978243312"/>
+        <c:axId val="-1565369664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16069,7 +16065,5330 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="978246576"/>
+        <c:crossAx val="-1565368032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$B$313:$B$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aut Wd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$B$316:$B$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.9638693506122422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8325670692653064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7998931699183682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7417868612244902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6507481310204106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6497982163265288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5212469800000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4403041489795916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3987713636734673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5238651955102034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7915569073469397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1150214799999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5960899355102054</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3357435195918352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.171757758775511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.605348432653063</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.059679365714283</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.14909437428572</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.329462411020405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.860465538775507</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.3821742322449</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.593135259183672</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.722797347346937</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.939921266938775</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.808752794285716</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.774788567755103</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.740469294285713</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.771372880816326</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.603358692653064</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.462999699183676</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.376888173469389</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.203363176326533</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.11905986857143</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.801435003673468</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.340943974163267</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.179994654285711</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.072141397959184</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.607595282857142</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.419207313469386</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.227368896897964</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.837313149387757</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.204844679183672</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.546260240816329</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.752001973469387</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.550440724775513</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.7545172721224507</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.005035101632652</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.447374293061225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$C$313:$C$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aut Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$C$316:$C$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.6312968482993186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.358106433333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2605100122448993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1809104098639454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1337008768707477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0878879295918367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0151182384353756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9502685319727888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9023315979591846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9601071751700676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1250753000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1741697469387748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3770280655102036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7087607846938786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2012767190476197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.238503985714285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.360802823129253</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.558811660272111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.130675648979592</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.630282648639456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.153833980612244</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.374222650340137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.443159327551019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.746721037414968</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.545391869727894</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.487126498299318</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.49380746894558</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.436804668265303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.319645169625851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.271311332993196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.183392069965986</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.154121244897958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.893779846938774</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.519127582993196</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.019730027448981</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.061925600340135</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.856503426190473</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.739027092517006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.397353143197279</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.167085420170068</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.012600604183675</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.766661877551021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.506155642857141</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.086206208503402</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.6364379904761908</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2664595541836725</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.7955574934353749</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.2637337918367333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$D$313:$D$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aut Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$D$316:$D$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.676503477380952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3827223162698417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2585987249999988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1044359325396833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0392697194444436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0025547686507927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7692226162698423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7021268956349216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6399407182539685</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6792170674603177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8976505833333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9316389432539687</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9996141178571429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0890016865079373</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3466397936507919</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8189677539682547</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5933769007936505</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4525898492063476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.875460456349204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.151943420634922</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.356794138888889</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.221649257936507</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.537055107142857</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.775895869047618</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.973787785714286</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.948963849206349</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.155353611111112</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.119157253968254</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.120454543650794</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.878095222222221</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.684485444444443</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.498666428571427</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.895629250000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.0313043015873</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.06076027777778</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.242426242063493</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.76882219563492</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.622529265873014</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.563374776587303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.46644715873016</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.357508965476191</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.096436952380953</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.899407281746031</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.3716235583333329</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0234208968253977</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.5425462551587295</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1003932234126985</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.7637026269841272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$E$313:$E$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hsr Wd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$E$316:$E$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.0264435684318558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8238270843185536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6805337747536946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.633501672701148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5854868244252884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5253516261904752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4464417589901455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3799422256978646</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3100668545156005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4064935751642045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5890948009564836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8205821175287351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2191236619868651</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8098786933497557</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7466045998357966</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.042464040465108</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.385007982799671</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.35883735341954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.53325967309935</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.195935486112479</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.811255462204436</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.009859442844828</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.335413162015598</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.563985393706893</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.516045035496713</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.449872647836617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.491269537889988</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.641936521293104</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.64122646012726</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.572524503871101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.484565131350578</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.310111393830052</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.193446413834153</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.978897897754518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.417910130595239</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.235216511453203</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.945532079897374</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.386663404117403</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.066885206691298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.822062727286534</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.481977495907225</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.898662115504925</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.377425218788995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.690750837848931</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.6445935441174075</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.8295890831403945</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.0578225607019682</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4734346991091964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$F$313:$F$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hsr Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$F$316:$F$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.1059333841269856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7480781841269843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6149519460317441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5448764380952378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4696019142857137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3656154190476189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2711510603174601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2007541841269829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.065234914285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1279187968253979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2954013714285706</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3406698031746025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4468098730158729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6317728507936513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2390383904761899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.145940095238096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.096713667301588</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.301190069841271</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.666496521269842</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.099390343492063</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.663066989841269</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.812013333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.029954634920635</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.202201177142859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.199171095238095</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.109444245079365</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.112897759365081</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.03168995873016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.974465196190478</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.865602191111114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.846702742222222</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.717441368253967</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.643217907301585</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.446684569841269</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.052140029206347</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.047082651428573</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.861608603809524</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.723304519999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.264916464126985</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9358565073015868</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.9353251111111121</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.8920917619047621</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6857821841269853</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.3365586850793658</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.9033965942857147</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.46562435936508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.0829455269841279</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.593901492063492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$G$313:$G$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hsr Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$G$316:$G$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.0366037226190477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7569739940476188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5776554729761898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5044793820238089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4026889313095241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3078374404761917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2212563726190471</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0795609047619052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.005013885714285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0265965297619051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2935927880952383</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2750061226190486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2057320916666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2764421880952375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7292264107142854</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.263743458333332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8345658833333331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4263119559523822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6601736892857151</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.130026232142857</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.383370423809525</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.16751366107143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.69438601309524</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.981157693214286</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.007514867857145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.033793189285715</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.153703188571429</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.14588948452381</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.116566266666668</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.026080670238096</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.866345097619044</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.596937795238095</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.034449760714285</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.463172615476191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.76617899642857</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.005258763928571</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.506351337261904</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.239294686904762</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.079815321428573</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9493757357142858</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.8338409928571426</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.5862069607142839</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.3613264955952378</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.9981017690476204</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.6019472130952384</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.2324783666666672</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.7014495416666664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.2345216142857156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$H$313:$H$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Smr Wd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$H$316:$H$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.3831573807094255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1984449074344008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1100215828474242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0299073194363446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9612258667638471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9175220900388759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8110772591350841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.795722612973762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6866925498056355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6236787315840626</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7529183537414976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0519535160349873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.538382154859085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2163679084548118</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2747455645821191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.760318583965017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.133283313945579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.147464159523814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.32655065714286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.906263629057346</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.577640891156459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.846778668756077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.049527863022352</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.154929646550055</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.061596602623911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.046279539990284</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.038530826239068</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.07230140252673</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.919108304178817</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.833125471477164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.74798600592322</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.563223193731776</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.404314596205051</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.216996979786202</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.838172672740519</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.509213102774543</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.31427379713314</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.702105233960154</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.348930893148689</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.078185151360543</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.759538516224492</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.069286490330413</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.461376962142857</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.862681692084552</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.9061583555442159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.1933698500048564</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.4564973742905725</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.8613406322691919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$I$313:$I$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Smr Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$I$316:$I$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.4516326686309524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.089096074404762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9084657767857136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.785708517261904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6772856982142859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5521033083333311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4387923970238088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4126274339285718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3104436886904764</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1861029428571426</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2617319130952369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3239262589285712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4955867238095255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7045812488095233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.294574222023809</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3337141527976222</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.29732686904762</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.588799237916666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.142281806547619</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.669039915892858</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.215686498214286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.371751517261902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.515318234523807</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.770935905952385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.812363504761905</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.640828518452381</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.646785632142855</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.637620759523807</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.475180351190478</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.357847535119046</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.278241992857144</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.163315422619045</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.02829114047619</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.813267375416666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.342561381130954</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.273742559940477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.97931853095238</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.998253112916668</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.480748015297618</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.108645905773809</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.018762966845239</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.8062330922619036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6496086684523821</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.3861410948214292</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.1001847472023805</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.7369676525595246</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.2785091166666653</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.8046720321428564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$J$313:$J$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Smr Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$J$316:$J$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.310744612261904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0096949717857147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8101279940119044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7050388514642849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5742569496071424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4509158794047625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3984436757142849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2201221728571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0470077319047615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9996300708690482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1508314834880959</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1923802472619052</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1909560758333324</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3064332086071424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7392865984166663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2911101921428569</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8950024291666683</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5801615557500011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9532912201547639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.302486032297619</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.56659773567857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.351165104428571</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.847523034083329</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.123330891071429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.255631717892857</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.289243597261907</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.485490790357144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.455210242142858</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.337155830357144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.164746541190476</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.09452268095238</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.856872101309525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.082407389202382</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.319761029083335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.533644220035715</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.91591412925</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.375989722416666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.132186674880952</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.9058856024999979</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.7509662080952388</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.6688573374166662</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.2770264073809532</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.1057995791666677</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.7928882017499994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.4513444219047607</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.1124944775000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.7498513307499994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.2993324003928564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$K$313:$K$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spr Wd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$K$316:$K$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.9887685770262769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8075923065388153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6983386234739513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6260642235592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5181947512745824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5105005705208896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3752290676576733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2793203236331951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2071931709956134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2371641933892441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5377616564532506</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9186710154040494</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3785402240808207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9576143587363735</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8995030314993571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.414702361602922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.886463512671993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.115276682370201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.365588630101026</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.081405789644396</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.740573074011888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.955354606602668</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.014151583707218</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.087948981866798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.957786966017544</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.891581746562387</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.804961447787058</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.845149811434485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.619358941033227</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.513832010112367</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.420411503580844</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.133681414937531</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.974616511584699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.621084487168279</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.252387416066664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.054014322173796</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.802812268497782</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.142066696859331</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.849677851729176</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.668347201725849</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.402436255495886</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.824496348524022</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.326845676068595</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.69109772966687</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.564602416983778</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.7097481706332314</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.9506210027099904</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.4395008346192686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$L$313:$L$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spr Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$L$316:$L$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.6065075785714287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0892950285714287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0937342004761916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9385425285714293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0336631785714294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.850955676190476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5867601380952374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5583750190476193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4567841785714286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4627407714285718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5779180476190477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5951744309523805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.023174093571428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4313935207142849</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0599961166666656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0609282959523796</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.39083934761905</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.072111302380952</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.125673919047619</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.497584136428571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.136290079285715</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.252397934047622</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.083370021428571</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.336139333333335</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.290422692857145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.093073397619047</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.94971826666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.27848301738095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.922745214999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.69527764047619</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.394217833333331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.245146321428571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.129945726190478</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.154513933333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.824383811190478</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.681335528571429</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.157676561904763</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.404242126904762</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.012383909523807</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.671807195238094</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.670450988095238</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.763252573809524</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.370978083333332</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.059777959523808</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.4311685976190489</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.0795705666666677</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.6394281738095238</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.9537751976190485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$M$313:$M$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spr Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$M$316:$M$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.8988109833333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4679412952380941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4244970285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3905604279478467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2734876568594098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1027467632086161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0381309051020393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9242953562925162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.871067576757369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8099527111111096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8736878324263042</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9564868904761905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9808368837868491</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0890684076530608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.6834380691043096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4066216088435368</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2298527125283432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.090799867913834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.213936246768707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.553597250623582</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.73171495408163</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.228200861167801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.902259684240361</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.02987788798186</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.216842058560092</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.124087948129253</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.189314117857142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.155426379988663</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.024893373696145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.907505591609977</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.919322628854875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.795677712244895</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.068263372902495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.412374630498869</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.663809414965986</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.689303874263041</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.096270181972789</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.949344281632651</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.802027769897959</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.711515102097504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.599507673979591</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.299065036507937</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.044435295238097</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.4681045633786844</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.1547466869614489</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.5131473651360547</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.0316062630952372</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7355573321428581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$N$313:$N$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wtr Wd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$N$316:$N$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.9100536788873441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7466668463759198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6475121027328363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6313544882519153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5490637103611267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5442916223249608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4179766727384795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3723782317408961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3205313241177397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4092609803821841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8533640887039589</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.280504219756514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8985056560897924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.75400374908204</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.84394570124827</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.439390044274925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.122322192823752</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.296696240185955</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.64967588455335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.359066062700983</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.967064424307804</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.197108431247756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.379788814537417</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.524261731751178</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.396706608917661</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.352077436821286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.284796646776588</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.256637405249915</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.038206252160059</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.873544953757641</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.727901622078395</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.56025157595932</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.456431927117688</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.185003170421737</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.670515575332622</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.605918287155696</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.400111654743931</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.633942194411052</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.28990531742949</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.917773725535527</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.462606455992193</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.718372676940461</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.051740797945239</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.214038873611759</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.787774844845119</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.830133340514719</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.001404662870499</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4139896229105648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$O$313:$O$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wtr Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$O$316:$O$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.8910011975623569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5536836231859397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3417224256928701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2483188487780286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1708130665154961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1372001503401385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9817458834215174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8949693935941063</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7779365342907534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.791026379736711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9965804527714806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.188512535840264</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5220519474867729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9503864652494354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5941400693562642</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.856148877280173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.192667223437896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.465403198614265</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.971416033453011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.577326934416732</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.272258980826404</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.602276222039553</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.747741061161499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.928982444344925</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.84071597100025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.689027986880827</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.622978734145882</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.517314970697907</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.358090008648276</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.229782827683298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.101882052840768</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.985247266484002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.871983666169065</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.609460093871252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.026683192485507</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.107655004276893</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.903729513857391</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.731883252645499</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.118497309347438</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.645439167050895</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.410101534618294</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.096940052349458</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.720038404119427</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.340627395477449</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.813281441187957</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.398705973343413</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.8667927490866738</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.3078697505983854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profiles!$P$313:$P$315</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Profile Class 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wtr Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>profiles!$A$316:$A$363</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profiles!$P$316:$P$363</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.7380778863636355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3191191088888896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1091125648148132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9970255311952876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9290849523737368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8409976155026468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7275627075396818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6442368059283305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5307002328148167</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5292863996392505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.751583289943242</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8657504416305919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0745705478234715</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.32270511605339</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7634728806931204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4071174800264536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.325667288478114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.117138372354496</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.646616793025492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.141814973328525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.476696276010101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.220368034932662</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.818091408333334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.157504633778256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.230943861988937</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.307315465993266</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.458635938455988</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.405349624146226</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.317573092094758</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.160105794636845</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.986850064521406</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.777202898460796</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.130714944600772</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.361433810738333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.385960627164506</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.667170116065419</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.782018075072152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.353175896909567</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.061771561616165</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.852781604124578</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.639753965632515</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.320917101527179</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.994750112878789</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.533240053703704</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.069996373424724</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.6084698897546907</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.03845295508658</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.6100965492544521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1458872496"/>
+        <c:axId val="-1458870864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1458872496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1458870864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1458870864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1458872496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16231,6 +21550,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17818,6 +23177,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17905,6 +23780,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18202,8 +24107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="V363" sqref="V363"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313:P363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
